--- a/Ergebnisse-normal-edge.xlsx
+++ b/Ergebnisse-normal-edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58356358-D389-4316-9617-C50A6B824E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CD5426-C480-4E4E-85D3-5893BAC19DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,27 +44,20 @@
     <t>all_possible_solutions-normal</t>
   </si>
   <si>
-    <t>all_possible_solutions-edge</t>
+    <t>Vergleich-Best-Edge</t>
   </si>
   <si>
-    <t>Vergleich-Best-Edge</t>
+    <t>all_possible_solutions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,9 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -511,7 +503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>all_possible_solutions-edge</c:v>
+                  <c:v>all_possible_solutions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -541,16 +533,16 @@
                   <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>324</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>278</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>233</c:v>
@@ -580,7 +572,7 @@
                   <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>275</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>239</c:v>
@@ -592,13 +584,13 @@
                   <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>263</c:v>
+                  <c:v>274</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>290</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>251</c:v>
@@ -607,10 +599,10 @@
                   <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>245</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>254</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>240</c:v>
@@ -619,31 +611,31 @@
                   <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>270</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>251</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>269</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>285</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>244</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>229</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>319</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>296</c:v>
@@ -652,37 +644,37 @@
                   <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>263</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>294</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>274</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>287</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>280</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>269</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>230</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>266</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>288</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>244</c:v>
@@ -703,7 +695,7 @@
                   <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>303</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>321</c:v>
@@ -712,43 +704,43 @@
                   <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>281</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>275</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>242</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>295</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="65">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>272</c:v>
@@ -760,64 +752,64 @@
                   <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>264</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>269</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>287</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>269</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>262</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>259</c:v>
                 </c:pt>
-                <c:pt idx="83">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>294</c:v>
-                </c:pt>
                 <c:pt idx="88">
-                  <c:v>298</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>297</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>291</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>288</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>286</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>276</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>245</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>287</c:v>
@@ -826,10 +818,10 @@
                   <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>286</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>273</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>248</c:v>
@@ -1962,7 +1954,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1977,14 +1969,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="D1" t="s">
+        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1997,15 +1989,15 @@
       <c r="C2">
         <v>194</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>241</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <f>C2/D2</f>
-        <v>0.80497925311203322</v>
+        <f>D2/C2</f>
+        <v>1.2422680412371134</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -2018,15 +2010,15 @@
       <c r="C3">
         <v>208</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>254</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">C3/D3</f>
-        <v>0.81889763779527558</v>
+        <f t="shared" ref="I3:I66" si="0">D3/C3</f>
+        <v>1.2211538461538463</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -2039,15 +2031,15 @@
       <c r="C4">
         <v>143</v>
       </c>
-      <c r="D4" s="1">
-        <v>305</v>
+      <c r="D4">
+        <v>307</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>0.46885245901639344</v>
+        <v>2.1468531468531467</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2060,15 +2052,15 @@
       <c r="C5">
         <v>158</v>
       </c>
-      <c r="D5" s="1">
-        <v>324</v>
+      <c r="D5">
+        <v>326</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.48765432098765432</v>
+        <v>2.0632911392405062</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -2081,7 +2073,7 @@
       <c r="C6">
         <v>93</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>252</v>
       </c>
       <c r="H6">
@@ -2089,7 +2081,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.36904761904761907</v>
+        <v>2.7096774193548385</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -2102,15 +2094,15 @@
       <c r="C7">
         <v>146</v>
       </c>
-      <c r="D7" s="1">
-        <v>278</v>
+      <c r="D7">
+        <v>290</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.52517985611510787</v>
+        <v>1.9863013698630136</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2123,7 +2115,7 @@
       <c r="C8">
         <v>171</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>233</v>
       </c>
       <c r="H8">
@@ -2131,7 +2123,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.73390557939914158</v>
+        <v>1.3625730994152048</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2144,7 +2136,7 @@
       <c r="C9">
         <v>215</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>320</v>
       </c>
       <c r="H9">
@@ -2152,7 +2144,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0.671875</v>
+        <v>1.4883720930232558</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2165,7 +2157,7 @@
       <c r="C10">
         <v>227</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>249</v>
       </c>
       <c r="H10">
@@ -2173,7 +2165,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.91164658634538154</v>
+        <v>1.0969162995594715</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -2186,7 +2178,7 @@
       <c r="C11">
         <v>155</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>254</v>
       </c>
       <c r="H11">
@@ -2194,7 +2186,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.61023622047244097</v>
+        <v>1.6387096774193548</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -2207,7 +2199,7 @@
       <c r="C12">
         <v>179</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>262</v>
       </c>
       <c r="H12">
@@ -2215,7 +2207,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0.68320610687022898</v>
+        <v>1.4636871508379887</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -2228,7 +2220,7 @@
       <c r="C13">
         <v>225</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>215</v>
       </c>
       <c r="H13">
@@ -2236,7 +2228,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>1.0465116279069768</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2249,7 +2241,7 @@
       <c r="C14">
         <v>123</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>271</v>
       </c>
       <c r="H14">
@@ -2257,7 +2249,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.45387453874538747</v>
+        <v>2.2032520325203251</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -2270,7 +2262,7 @@
       <c r="C15">
         <v>154</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>220</v>
       </c>
       <c r="H15">
@@ -2278,7 +2270,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -2291,7 +2283,7 @@
       <c r="C16">
         <v>149</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>231</v>
       </c>
       <c r="H16">
@@ -2299,7 +2291,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>0.64502164502164505</v>
+        <v>1.5503355704697988</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -2312,15 +2304,15 @@
       <c r="C17">
         <v>104</v>
       </c>
-      <c r="D17" s="1">
-        <v>275</v>
+      <c r="D17">
+        <v>277</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>0.37818181818181817</v>
+        <v>2.6634615384615383</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -2333,7 +2325,7 @@
       <c r="C18">
         <v>256</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>239</v>
       </c>
       <c r="H18">
@@ -2341,7 +2333,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>1.0711297071129706</v>
+        <v>0.93359375</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -2354,7 +2346,7 @@
       <c r="C19">
         <v>104</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>152</v>
       </c>
       <c r="H19">
@@ -2362,7 +2354,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>0.68421052631578949</v>
+        <v>1.4615384615384615</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -2375,7 +2367,7 @@
       <c r="C20">
         <v>186</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>286</v>
       </c>
       <c r="H20">
@@ -2383,7 +2375,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>0.65034965034965031</v>
+        <v>1.5376344086021505</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -2396,15 +2388,15 @@
       <c r="C21">
         <v>245</v>
       </c>
-      <c r="D21" s="1">
-        <v>263</v>
+      <c r="D21">
+        <v>274</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0.9315589353612167</v>
+        <v>1.1183673469387756</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -2417,7 +2409,7 @@
       <c r="C22">
         <v>273</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>281</v>
       </c>
       <c r="H22">
@@ -2425,7 +2417,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0.97153024911032027</v>
+        <v>1.0293040293040292</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -2438,15 +2430,15 @@
       <c r="C23">
         <v>168</v>
       </c>
-      <c r="D23" s="1">
-        <v>290</v>
+      <c r="D23">
+        <v>245</v>
       </c>
       <c r="H23">
         <v>6</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0.57931034482758625</v>
+        <v>1.4583333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -2459,7 +2451,7 @@
       <c r="C24">
         <v>229</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>251</v>
       </c>
       <c r="H24">
@@ -2467,7 +2459,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0.91235059760956172</v>
+        <v>1.0960698689956332</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -2480,7 +2472,7 @@
       <c r="C25">
         <v>207</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>289</v>
       </c>
       <c r="H25">
@@ -2488,7 +2480,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0.7162629757785467</v>
+        <v>1.3961352657004831</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2501,15 +2493,15 @@
       <c r="C26">
         <v>260</v>
       </c>
-      <c r="D26" s="1">
-        <v>245</v>
+      <c r="D26">
+        <v>218</v>
       </c>
       <c r="H26">
         <v>6</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>1.0612244897959184</v>
+        <v>0.83846153846153848</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -2522,15 +2514,15 @@
       <c r="C27">
         <v>225</v>
       </c>
-      <c r="D27" s="1">
-        <v>254</v>
+      <c r="D27">
+        <v>253</v>
       </c>
       <c r="H27">
         <v>6</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0.88582677165354329</v>
+        <v>1.1244444444444444</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -2543,7 +2535,7 @@
       <c r="C28">
         <v>175</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>240</v>
       </c>
       <c r="H28">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>0.72916666666666663</v>
+        <v>1.3714285714285714</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2564,7 +2556,7 @@
       <c r="C29">
         <v>246</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>225</v>
       </c>
       <c r="H29">
@@ -2572,7 +2564,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>1.0933333333333333</v>
+        <v>0.91463414634146345</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2585,15 +2577,15 @@
       <c r="C30">
         <v>145</v>
       </c>
-      <c r="D30" s="1">
-        <v>270</v>
+      <c r="D30">
+        <v>253</v>
       </c>
       <c r="H30">
         <v>6</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>0.53703703703703709</v>
+        <v>1.7448275862068965</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2606,15 +2598,15 @@
       <c r="C31">
         <v>181</v>
       </c>
-      <c r="D31" s="1">
-        <v>251</v>
+      <c r="D31">
+        <v>221</v>
       </c>
       <c r="H31">
         <v>6</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>0.7211155378486056</v>
+        <v>1.2209944751381216</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2627,15 +2619,15 @@
       <c r="C32">
         <v>203</v>
       </c>
-      <c r="D32" s="1">
-        <v>269</v>
+      <c r="D32">
+        <v>258</v>
       </c>
       <c r="H32">
         <v>6</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>0.75464684014869887</v>
+        <v>1.270935960591133</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -2648,7 +2640,7 @@
       <c r="C33">
         <v>245</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>343</v>
       </c>
       <c r="H33">
@@ -2656,7 +2648,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2669,15 +2661,15 @@
       <c r="C34">
         <v>169</v>
       </c>
-      <c r="D34" s="1">
-        <v>285</v>
+      <c r="D34">
+        <v>283</v>
       </c>
       <c r="H34">
         <v>6</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>0.59298245614035083</v>
+        <v>1.6745562130177514</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2690,15 +2682,15 @@
       <c r="C35">
         <v>128</v>
       </c>
-      <c r="D35" s="1">
-        <v>244</v>
+      <c r="D35">
+        <v>236</v>
       </c>
       <c r="H35">
         <v>6</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>0.52459016393442626</v>
+        <v>1.84375</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -2711,7 +2703,7 @@
       <c r="C36">
         <v>233</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>250</v>
       </c>
       <c r="H36">
@@ -2719,7 +2711,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>0.93200000000000005</v>
+        <v>1.0729613733905579</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2732,15 +2724,15 @@
       <c r="C37">
         <v>244</v>
       </c>
-      <c r="D37" s="1">
-        <v>229</v>
+      <c r="D37">
+        <v>226</v>
       </c>
       <c r="H37">
         <v>6</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>1.0655021834061136</v>
+        <v>0.92622950819672134</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2753,15 +2745,15 @@
       <c r="C38">
         <v>221</v>
       </c>
-      <c r="D38" s="1">
-        <v>319</v>
+      <c r="D38">
+        <v>247</v>
       </c>
       <c r="H38">
         <v>6</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>0.69278996865203757</v>
+        <v>1.1176470588235294</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2774,7 +2766,7 @@
       <c r="C39">
         <v>198</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>296</v>
       </c>
       <c r="H39">
@@ -2782,7 +2774,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>0.66891891891891897</v>
+        <v>1.494949494949495</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2795,7 +2787,7 @@
       <c r="C40">
         <v>201</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>302</v>
       </c>
       <c r="H40">
@@ -2803,7 +2795,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>0.66556291390728473</v>
+        <v>1.5024875621890548</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2816,15 +2808,15 @@
       <c r="C41">
         <v>134</v>
       </c>
-      <c r="D41" s="1">
-        <v>263</v>
+      <c r="D41">
+        <v>255</v>
       </c>
       <c r="H41">
         <v>6</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>0.50950570342205326</v>
+        <v>1.9029850746268657</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -2837,15 +2829,15 @@
       <c r="C42">
         <v>132</v>
       </c>
-      <c r="D42" s="1">
-        <v>294</v>
+      <c r="D42">
+        <v>265</v>
       </c>
       <c r="H42">
         <v>7</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>0.44897959183673469</v>
+        <v>2.0075757575757578</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2858,7 +2850,7 @@
       <c r="C43">
         <v>189</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>253</v>
       </c>
       <c r="H43">
@@ -2866,7 +2858,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>0.74703557312252966</v>
+        <v>1.3386243386243386</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2879,15 +2871,15 @@
       <c r="C44">
         <v>97</v>
       </c>
-      <c r="D44" s="1">
-        <v>274</v>
+      <c r="D44">
+        <v>275</v>
       </c>
       <c r="H44">
         <v>7</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>0.354014598540146</v>
+        <v>2.8350515463917527</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2900,15 +2892,15 @@
       <c r="C45">
         <v>202</v>
       </c>
-      <c r="D45" s="1">
-        <v>287</v>
+      <c r="D45">
+        <v>247</v>
       </c>
       <c r="H45">
         <v>7</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>0.70383275261324041</v>
+        <v>1.2227722772277227</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2921,15 +2913,15 @@
       <c r="C46">
         <v>227</v>
       </c>
-      <c r="D46" s="1">
-        <v>280</v>
+      <c r="D46">
+        <v>285</v>
       </c>
       <c r="H46">
         <v>7</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>0.81071428571428572</v>
+        <v>1.2555066079295154</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2942,15 +2934,15 @@
       <c r="C47">
         <v>256</v>
       </c>
-      <c r="D47" s="1">
-        <v>269</v>
+      <c r="D47">
+        <v>292</v>
       </c>
       <c r="H47">
         <v>7</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>0.95167286245353155</v>
+        <v>1.140625</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2963,15 +2955,15 @@
       <c r="C48">
         <v>164</v>
       </c>
-      <c r="D48" s="1">
-        <v>230</v>
+      <c r="D48">
+        <v>226</v>
       </c>
       <c r="H48">
         <v>7</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>0.71304347826086956</v>
+        <v>1.3780487804878048</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2984,15 +2976,15 @@
       <c r="C49">
         <v>152</v>
       </c>
-      <c r="D49" s="1">
-        <v>266</v>
+      <c r="D49">
+        <v>252</v>
       </c>
       <c r="H49">
         <v>7</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>1.6578947368421053</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -3005,7 +2997,7 @@
       <c r="C50">
         <v>119</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>219</v>
       </c>
       <c r="H50">
@@ -3013,7 +3005,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>0.54337899543378998</v>
+        <v>1.8403361344537814</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -3026,15 +3018,15 @@
       <c r="C51">
         <v>128</v>
       </c>
-      <c r="D51" s="1">
-        <v>288</v>
+      <c r="D51">
+        <v>268</v>
       </c>
       <c r="H51">
         <v>7</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
+        <v>2.09375</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -3047,7 +3039,7 @@
       <c r="C52">
         <v>208</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>244</v>
       </c>
       <c r="H52">
@@ -3055,7 +3047,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>0.85245901639344257</v>
+        <v>1.1730769230769231</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -3068,7 +3060,7 @@
       <c r="C53">
         <v>244</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>298</v>
       </c>
       <c r="H53">
@@ -3076,7 +3068,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>0.81879194630872487</v>
+        <v>1.221311475409836</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -3089,7 +3081,7 @@
       <c r="C54">
         <v>143</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>268</v>
       </c>
       <c r="H54">
@@ -3097,7 +3089,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>0.53358208955223885</v>
+        <v>1.8741258741258742</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -3110,7 +3102,7 @@
       <c r="C55">
         <v>176</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>228</v>
       </c>
       <c r="H55">
@@ -3118,7 +3110,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>0.77192982456140347</v>
+        <v>1.2954545454545454</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -3131,7 +3123,7 @@
       <c r="C56">
         <v>144</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>291</v>
       </c>
       <c r="H56">
@@ -3139,7 +3131,7 @@
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>0.49484536082474229</v>
+        <v>2.0208333333333335</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -3152,7 +3144,7 @@
       <c r="C57">
         <v>217</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>258</v>
       </c>
       <c r="H57">
@@ -3160,7 +3152,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>0.84108527131782951</v>
+        <v>1.1889400921658986</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -3173,15 +3165,15 @@
       <c r="C58">
         <v>185</v>
       </c>
-      <c r="D58" s="1">
-        <v>303</v>
+      <c r="D58">
+        <v>304</v>
       </c>
       <c r="H58">
         <v>7</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>0.61056105610561051</v>
+        <v>1.6432432432432433</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -3194,7 +3186,7 @@
       <c r="C59">
         <v>141</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>321</v>
       </c>
       <c r="H59">
@@ -3202,7 +3194,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>0.43925233644859812</v>
+        <v>2.2765957446808511</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -3215,7 +3207,7 @@
       <c r="C60">
         <v>237</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>242</v>
       </c>
       <c r="H60">
@@ -3223,7 +3215,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>0.97933884297520657</v>
+        <v>1.0210970464135021</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -3236,15 +3228,15 @@
       <c r="C61">
         <v>117</v>
       </c>
-      <c r="D61" s="1">
-        <v>281</v>
+      <c r="D61">
+        <v>296</v>
       </c>
       <c r="H61">
         <v>7</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>0.41637010676156583</v>
+        <v>2.5299145299145298</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -3257,7 +3249,7 @@
       <c r="C62">
         <v>178</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>303</v>
       </c>
       <c r="H62">
@@ -3265,7 +3257,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>0.58745874587458746</v>
+        <v>1.702247191011236</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -3278,15 +3270,15 @@
       <c r="C63">
         <v>213</v>
       </c>
-      <c r="D63" s="1">
-        <v>275</v>
+      <c r="D63">
+        <v>262</v>
       </c>
       <c r="H63">
         <v>8</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>0.77454545454545454</v>
+        <v>1.2300469483568075</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -3299,15 +3291,15 @@
       <c r="C64">
         <v>215</v>
       </c>
-      <c r="D64" s="1">
-        <v>242</v>
+      <c r="D64">
+        <v>241</v>
       </c>
       <c r="H64">
         <v>8</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>0.88842975206611574</v>
+        <v>1.1209302325581396</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -3320,15 +3312,15 @@
       <c r="C65">
         <v>130</v>
       </c>
-      <c r="D65" s="1">
-        <v>295</v>
+      <c r="D65">
+        <v>279</v>
       </c>
       <c r="H65">
         <v>8</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>0.44067796610169491</v>
+        <v>2.1461538461538461</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -3341,7 +3333,7 @@
       <c r="C66">
         <v>267</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>251</v>
       </c>
       <c r="H66">
@@ -3349,7 +3341,7 @@
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>1.0637450199203187</v>
+        <v>0.94007490636704116</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -3362,15 +3354,15 @@
       <c r="C67">
         <v>185</v>
       </c>
-      <c r="D67" s="1">
-        <v>270</v>
+      <c r="D67">
+        <v>251</v>
       </c>
       <c r="H67">
         <v>8</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I101" si="1">C67/D67</f>
-        <v>0.68518518518518523</v>
+        <f t="shared" ref="I67:I101" si="1">D67/C67</f>
+        <v>1.3567567567567567</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -3383,15 +3375,15 @@
       <c r="C68">
         <v>190</v>
       </c>
-      <c r="D68" s="1">
-        <v>278</v>
+      <c r="D68">
+        <v>258</v>
       </c>
       <c r="H68">
         <v>8</v>
       </c>
       <c r="I68">
         <f t="shared" si="1"/>
-        <v>0.68345323741007191</v>
+        <v>1.3578947368421053</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -3404,15 +3396,15 @@
       <c r="C69">
         <v>251</v>
       </c>
-      <c r="D69" s="1">
-        <v>252</v>
+      <c r="D69">
+        <v>234</v>
       </c>
       <c r="H69">
         <v>8</v>
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
-        <v>0.99603174603174605</v>
+        <v>0.9322709163346613</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -3425,15 +3417,15 @@
       <c r="C70">
         <v>219</v>
       </c>
-      <c r="D70" s="1">
-        <v>281</v>
+      <c r="D70">
+        <v>270</v>
       </c>
       <c r="H70">
         <v>8</v>
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>0.77935943060498225</v>
+        <v>1.2328767123287672</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3446,15 +3438,15 @@
       <c r="C71">
         <v>277</v>
       </c>
-      <c r="D71" s="1">
-        <v>265</v>
+      <c r="D71">
+        <v>253</v>
       </c>
       <c r="H71">
         <v>8</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>1.0452830188679245</v>
+        <v>0.91335740072202165</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3467,15 +3459,15 @@
       <c r="C72">
         <v>154</v>
       </c>
-      <c r="D72" s="1">
-        <v>299</v>
+      <c r="D72">
+        <v>259</v>
       </c>
       <c r="H72">
         <v>8</v>
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>0.51505016722408026</v>
+        <v>1.6818181818181819</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3488,15 +3480,15 @@
       <c r="C73">
         <v>240</v>
       </c>
-      <c r="D73" s="1">
-        <v>261</v>
+      <c r="D73">
+        <v>252</v>
       </c>
       <c r="H73">
         <v>8</v>
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
-        <v>0.91954022988505746</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3509,7 +3501,7 @@
       <c r="C74">
         <v>140</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>272</v>
       </c>
       <c r="H74">
@@ -3517,7 +3509,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
-        <v>0.51470588235294112</v>
+        <v>1.9428571428571428</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3530,7 +3522,7 @@
       <c r="C75">
         <v>168</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>263</v>
       </c>
       <c r="H75">
@@ -3538,7 +3530,7 @@
       </c>
       <c r="I75">
         <f t="shared" si="1"/>
-        <v>0.63878326996197721</v>
+        <v>1.5654761904761905</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3551,7 +3543,7 @@
       <c r="C76">
         <v>168</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>237</v>
       </c>
       <c r="H76">
@@ -3559,7 +3551,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="1"/>
-        <v>0.70886075949367089</v>
+        <v>1.4107142857142858</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -3572,15 +3564,15 @@
       <c r="C77">
         <v>136</v>
       </c>
-      <c r="D77" s="1">
-        <v>264</v>
+      <c r="D77">
+        <v>245</v>
       </c>
       <c r="H77">
         <v>8</v>
       </c>
       <c r="I77">
         <f t="shared" si="1"/>
-        <v>0.51515151515151514</v>
+        <v>1.8014705882352942</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3593,15 +3585,15 @@
       <c r="C78">
         <v>217</v>
       </c>
-      <c r="D78" s="1">
-        <v>269</v>
+      <c r="D78">
+        <v>251</v>
       </c>
       <c r="H78">
         <v>8</v>
       </c>
       <c r="I78">
         <f t="shared" si="1"/>
-        <v>0.80669144981412644</v>
+        <v>1.1566820276497696</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -3614,7 +3606,7 @@
       <c r="C79">
         <v>136</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>261</v>
       </c>
       <c r="H79">
@@ -3622,7 +3614,7 @@
       </c>
       <c r="I79">
         <f t="shared" si="1"/>
-        <v>0.52107279693486586</v>
+        <v>1.9191176470588236</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3635,15 +3627,15 @@
       <c r="C80">
         <v>99</v>
       </c>
-      <c r="D80" s="1">
-        <v>287</v>
+      <c r="D80">
+        <v>272</v>
       </c>
       <c r="H80">
         <v>8</v>
       </c>
       <c r="I80">
         <f t="shared" si="1"/>
-        <v>0.34494773519163763</v>
+        <v>2.7474747474747474</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3656,7 +3648,7 @@
       <c r="C81">
         <v>167</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>271</v>
       </c>
       <c r="H81">
@@ -3664,7 +3656,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
-        <v>0.6162361623616236</v>
+        <v>1.6227544910179641</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3677,15 +3669,15 @@
       <c r="C82">
         <v>219</v>
       </c>
-      <c r="D82" s="1">
-        <v>269</v>
+      <c r="D82">
+        <v>270</v>
       </c>
       <c r="H82">
         <v>9</v>
       </c>
       <c r="I82">
         <f t="shared" si="1"/>
-        <v>0.81412639405204457</v>
+        <v>1.2328767123287672</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3698,15 +3690,15 @@
       <c r="C83">
         <v>193</v>
       </c>
-      <c r="D83" s="1">
-        <v>262</v>
+      <c r="D83">
+        <v>245</v>
       </c>
       <c r="H83">
         <v>9</v>
       </c>
       <c r="I83">
         <f t="shared" si="1"/>
-        <v>0.73664122137404575</v>
+        <v>1.2694300518134716</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3719,15 +3711,15 @@
       <c r="C84">
         <v>153</v>
       </c>
-      <c r="D84" s="1">
-        <v>259</v>
+      <c r="D84">
+        <v>242</v>
       </c>
       <c r="H84">
         <v>9</v>
       </c>
       <c r="I84">
         <f t="shared" si="1"/>
-        <v>0.59073359073359077</v>
+        <v>1.5816993464052287</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3740,15 +3732,15 @@
       <c r="C85">
         <v>131</v>
       </c>
-      <c r="D85" s="1">
-        <v>250</v>
+      <c r="D85">
+        <v>251</v>
       </c>
       <c r="H85">
         <v>9</v>
       </c>
       <c r="I85">
         <f t="shared" si="1"/>
-        <v>0.52400000000000002</v>
+        <v>1.916030534351145</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3761,15 +3753,15 @@
       <c r="C86">
         <v>198</v>
       </c>
-      <c r="D86" s="1">
-        <v>283</v>
+      <c r="D86">
+        <v>279</v>
       </c>
       <c r="H86">
         <v>9</v>
       </c>
       <c r="I86">
         <f t="shared" si="1"/>
-        <v>0.69964664310954061</v>
+        <v>1.4090909090909092</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3782,15 +3774,15 @@
       <c r="C87">
         <v>172</v>
       </c>
-      <c r="D87" s="1">
-        <v>283</v>
+      <c r="D87">
+        <v>279</v>
       </c>
       <c r="H87">
         <v>9</v>
       </c>
       <c r="I87">
         <f t="shared" si="1"/>
-        <v>0.607773851590106</v>
+        <v>1.6220930232558139</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3803,15 +3795,15 @@
       <c r="C88">
         <v>168</v>
       </c>
-      <c r="D88" s="1">
-        <v>288</v>
+      <c r="D88">
+        <v>266</v>
       </c>
       <c r="H88">
         <v>9</v>
       </c>
       <c r="I88">
         <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
+        <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3824,15 +3816,15 @@
       <c r="C89">
         <v>186</v>
       </c>
-      <c r="D89" s="1">
-        <v>294</v>
+      <c r="D89">
+        <v>259</v>
       </c>
       <c r="H89">
         <v>9</v>
       </c>
       <c r="I89">
         <f t="shared" si="1"/>
-        <v>0.63265306122448983</v>
+        <v>1.39247311827957</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3845,15 +3837,15 @@
       <c r="C90">
         <v>183</v>
       </c>
-      <c r="D90" s="1">
-        <v>298</v>
+      <c r="D90">
+        <v>278</v>
       </c>
       <c r="H90">
         <v>9</v>
       </c>
       <c r="I90">
         <f t="shared" si="1"/>
-        <v>0.61409395973154357</v>
+        <v>1.5191256830601092</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3866,15 +3858,15 @@
       <c r="C91">
         <v>210</v>
       </c>
-      <c r="D91" s="1">
-        <v>297</v>
+      <c r="D91">
+        <v>286</v>
       </c>
       <c r="H91">
         <v>9</v>
       </c>
       <c r="I91">
         <f t="shared" si="1"/>
-        <v>0.70707070707070707</v>
+        <v>1.361904761904762</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3887,15 +3879,15 @@
       <c r="C92">
         <v>172</v>
       </c>
-      <c r="D92" s="1">
-        <v>291</v>
+      <c r="D92">
+        <v>271</v>
       </c>
       <c r="H92">
         <v>9</v>
       </c>
       <c r="I92">
         <f t="shared" si="1"/>
-        <v>0.59106529209621994</v>
+        <v>1.5755813953488371</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3908,15 +3900,15 @@
       <c r="C93">
         <v>162</v>
       </c>
-      <c r="D93" s="1">
-        <v>288</v>
+      <c r="D93">
+        <v>286</v>
       </c>
       <c r="H93">
         <v>9</v>
       </c>
       <c r="I93">
         <f t="shared" si="1"/>
-        <v>0.5625</v>
+        <v>1.7654320987654322</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3929,15 +3921,15 @@
       <c r="C94">
         <v>202</v>
       </c>
-      <c r="D94" s="1">
-        <v>286</v>
+      <c r="D94">
+        <v>276</v>
       </c>
       <c r="H94">
         <v>9</v>
       </c>
       <c r="I94">
         <f t="shared" si="1"/>
-        <v>0.70629370629370625</v>
+        <v>1.3663366336633664</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3950,15 +3942,15 @@
       <c r="C95">
         <v>197</v>
       </c>
-      <c r="D95" s="1">
-        <v>276</v>
+      <c r="D95">
+        <v>277</v>
       </c>
       <c r="H95">
         <v>9</v>
       </c>
       <c r="I95">
         <f t="shared" si="1"/>
-        <v>0.71376811594202894</v>
+        <v>1.4060913705583757</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3971,15 +3963,15 @@
       <c r="C96">
         <v>201</v>
       </c>
-      <c r="D96" s="1">
-        <v>245</v>
+      <c r="D96">
+        <v>215</v>
       </c>
       <c r="H96">
         <v>9</v>
       </c>
       <c r="I96">
         <f t="shared" si="1"/>
-        <v>0.82040816326530608</v>
+        <v>1.0696517412935322</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3992,7 +3984,7 @@
       <c r="C97">
         <v>217</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97">
         <v>287</v>
       </c>
       <c r="H97">
@@ -4000,7 +3992,7 @@
       </c>
       <c r="I97">
         <f t="shared" si="1"/>
-        <v>0.75609756097560976</v>
+        <v>1.3225806451612903</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -4013,7 +4005,7 @@
       <c r="C98">
         <v>245</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98">
         <v>283</v>
       </c>
       <c r="H98">
@@ -4021,7 +4013,7 @@
       </c>
       <c r="I98">
         <f t="shared" si="1"/>
-        <v>0.86572438162544174</v>
+        <v>1.1551020408163266</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -4034,15 +4026,15 @@
       <c r="C99">
         <v>184</v>
       </c>
-      <c r="D99" s="1">
-        <v>286</v>
+      <c r="D99">
+        <v>256</v>
       </c>
       <c r="H99">
         <v>9</v>
       </c>
       <c r="I99">
         <f t="shared" si="1"/>
-        <v>0.64335664335664333</v>
+        <v>1.3913043478260869</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -4055,15 +4047,15 @@
       <c r="C100">
         <v>179</v>
       </c>
-      <c r="D100" s="1">
-        <v>273</v>
+      <c r="D100">
+        <v>256</v>
       </c>
       <c r="H100">
         <v>9</v>
       </c>
       <c r="I100">
         <f t="shared" si="1"/>
-        <v>0.65567765567765568</v>
+        <v>1.4301675977653632</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -4076,7 +4068,7 @@
       <c r="C101">
         <v>208</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
         <v>248</v>
       </c>
       <c r="H101">
@@ -4084,7 +4076,7 @@
       </c>
       <c r="I101">
         <f t="shared" si="1"/>
-        <v>0.83870967741935487</v>
+        <v>1.1923076923076923</v>
       </c>
     </row>
   </sheetData>

--- a/Ergebnisse-normal-edge.xlsx
+++ b/Ergebnisse-normal-edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CD5426-C480-4E4E-85D3-5893BAC19DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4510AE-CC41-4DA5-96EF-8F730F85E071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,13 +41,13 @@
     <t>RobotsCount</t>
   </si>
   <si>
-    <t>all_possible_solutions-normal</t>
-  </si>
-  <si>
     <t>Vergleich-Best-Edge</t>
   </si>
   <si>
     <t>all_possible_solutions</t>
+  </si>
+  <si>
+    <t>all_possible_solutions_on_edge</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>all_possible_solutions-normal</c:v>
+                  <c:v>all_possible_solutions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -209,7 +209,7 @@
                   <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>227</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>155</c:v>
@@ -245,61 +245,61 @@
                   <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>273</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>168</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>207</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>260</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>225</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>175</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>246</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>145</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>181</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>245</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>169</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>233</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>244</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>198</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>201</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>134</c:v>
@@ -317,7 +317,7 @@
                   <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>227</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>256</c:v>
@@ -326,7 +326,7 @@
                   <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>152</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>119</c:v>
@@ -338,37 +338,37 @@
                   <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>244</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>176</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>217</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>185</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>141</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>237</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>178</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>213</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>215</c:v>
@@ -377,10 +377,10 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>267</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>185</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>190</c:v>
@@ -389,28 +389,28 @@
                   <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>219</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>277</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>154</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>240</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>140</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>168</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>136</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>217</c:v>
@@ -422,13 +422,13 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>167</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>193</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>153</c:v>
@@ -440,13 +440,13 @@
                   <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>172</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>186</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>183</c:v>
@@ -461,28 +461,28 @@
                   <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>202</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>197</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>201</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>217</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>245</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>184</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>208</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>all_possible_solutions</c:v>
+                  <c:v>all_possible_solutions_on_edge</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1954,7 +1954,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2155,7 +2155,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D10">
         <v>249</v>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>1.0969162995594715</v>
+        <v>1.0641025641025641</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -2407,7 +2407,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="D22">
         <v>281</v>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1.0293040293040292</v>
+        <v>1.4635416666666667</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -2428,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D23">
         <v>245</v>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>1.4583333333333333</v>
+        <v>1.53125</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -2470,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D25">
         <v>289</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>1.3961352657004831</v>
+        <v>1.4896907216494846</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2491,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D26">
         <v>218</v>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>0.83846153846153848</v>
+        <v>0.88979591836734695</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -2512,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="D27">
         <v>253</v>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>1.1244444444444444</v>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -2533,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D28">
         <v>240</v>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>1.3714285714285714</v>
+        <v>1.3953488372093024</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2554,7 +2554,7 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D29">
         <v>225</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>0.91463414634146345</v>
+        <v>0.99118942731277537</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2575,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D30">
         <v>253</v>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>1.7448275862068965</v>
+        <v>2.0737704918032787</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <v>221</v>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>1.2209944751381216</v>
+        <v>2.0849056603773586</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2638,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D33">
         <v>343</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>1.4</v>
+        <v>1.4658119658119657</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2659,7 +2659,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D34">
         <v>283</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>1.6745562130177514</v>
+        <v>1.861842105263158</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2701,7 +2701,7 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D36">
         <v>250</v>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>1.0729613733905579</v>
+        <v>1.1520737327188939</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2722,7 +2722,7 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="D37">
         <v>226</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>0.92622950819672134</v>
+        <v>1.5586206896551724</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2764,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D39">
         <v>296</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>1.494949494949495</v>
+        <v>1.6353591160220995</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2785,7 +2785,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="D40">
         <v>302</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>1.5024875621890548</v>
+        <v>2.1418439716312059</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2911,7 +2911,7 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D46">
         <v>285</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>1.2555066079295154</v>
+        <v>1.11328125</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2974,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D49">
         <v>252</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>1.6578947368421053</v>
+        <v>1.8805970149253732</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -3058,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D53">
         <v>298</v>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>1.221311475409836</v>
+        <v>1.1919999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -3100,7 +3100,7 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D55">
         <v>228</v>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>1.2954545454545454</v>
+        <v>1.5302013422818792</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -3142,7 +3142,7 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D57">
         <v>258</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>1.1889400921658986</v>
+        <v>1.3096446700507614</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -3163,7 +3163,7 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D58">
         <v>304</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>1.6432432432432433</v>
+        <v>1.5916230366492146</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -3184,7 +3184,7 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D59">
         <v>321</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>2.2765957446808511</v>
+        <v>2.6528925619834709</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -3205,7 +3205,7 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="D60">
         <v>242</v>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>1.0210970464135021</v>
+        <v>1.2346938775510203</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -3247,7 +3247,7 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D62">
         <v>303</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>1.702247191011236</v>
+        <v>2.3129770992366412</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -3268,7 +3268,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="D63">
         <v>262</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>1.2300469483568075</v>
+        <v>1.617283950617284</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -3331,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="D66">
         <v>251</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>0.94007490636704116</v>
+        <v>1.0772532188841202</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -3352,7 +3352,7 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67">
         <v>251</v>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I101" si="1">D67/C67</f>
-        <v>1.3567567567567567</v>
+        <v>1.3641304347826086</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -3415,7 +3415,7 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D70">
         <v>270</v>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>1.2328767123287672</v>
+        <v>1.40625</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3436,7 +3436,7 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D71">
         <v>253</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>0.91335740072202165</v>
+        <v>0.93357933579335795</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3457,7 +3457,7 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="D72">
         <v>259</v>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>1.6818181818181819</v>
+        <v>1.9770992366412214</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3478,7 +3478,7 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="D73">
         <v>252</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
-        <v>1.05</v>
+        <v>1.1101321585903083</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3499,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="C74">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D74">
         <v>272</v>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
-        <v>1.9428571428571428</v>
+        <v>2.1760000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3541,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D76">
         <v>237</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="1"/>
-        <v>1.4107142857142858</v>
+        <v>1.4539877300613497</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -3562,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="C77">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D77">
         <v>245</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="I77">
         <f t="shared" si="1"/>
-        <v>1.8014705882352942</v>
+        <v>1.9918699186991871</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3646,7 +3646,7 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D81">
         <v>271</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
-        <v>1.6227544910179641</v>
+        <v>1.8435374149659864</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3688,7 +3688,7 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D83">
         <v>245</v>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="I83">
         <f t="shared" si="1"/>
-        <v>1.2694300518134716</v>
+        <v>1.4759036144578312</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3772,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="C87">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D87">
         <v>279</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="I87">
         <f t="shared" si="1"/>
-        <v>1.6220930232558139</v>
+        <v>1.7658227848101267</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3814,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D89">
         <v>259</v>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="I89">
         <f t="shared" si="1"/>
-        <v>1.39247311827957</v>
+        <v>1.4715909090909092</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3919,7 +3919,7 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D94">
         <v>276</v>
@@ -3929,7 +3929,7 @@
       </c>
       <c r="I94">
         <f t="shared" si="1"/>
-        <v>1.3663366336633664</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3940,7 +3940,7 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D95">
         <v>277</v>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="I95">
         <f t="shared" si="1"/>
-        <v>1.4060913705583757</v>
+        <v>1.5054347826086956</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3961,7 +3961,7 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D96">
         <v>215</v>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="I96">
         <f t="shared" si="1"/>
-        <v>1.0696517412935322</v>
+        <v>1.0804020100502512</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3982,7 +3982,7 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D97">
         <v>287</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="I97">
         <f t="shared" si="1"/>
-        <v>1.3225806451612903</v>
+        <v>1.3798076923076923</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -4003,7 +4003,7 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D98">
         <v>283</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="I98">
         <f t="shared" si="1"/>
-        <v>1.1551020408163266</v>
+        <v>1.2094017094017093</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -4024,7 +4024,7 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D99">
         <v>256</v>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="I99">
         <f t="shared" si="1"/>
-        <v>1.3913043478260869</v>
+        <v>1.6623376623376624</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -4066,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D101">
         <v>248</v>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="I101">
         <f t="shared" si="1"/>
-        <v>1.1923076923076923</v>
+        <v>1.2277227722772277</v>
       </c>
     </row>
   </sheetData>

--- a/Ergebnisse-normal-edge.xlsx
+++ b/Ergebnisse-normal-edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4510AE-CC41-4DA5-96EF-8F730F85E071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE646106-FDF4-49B1-8A55-02D2862F735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,13 +41,13 @@
     <t>RobotsCount</t>
   </si>
   <si>
-    <t>Vergleich-Best-Edge</t>
+    <t>all_possible_solutions_normal_Data</t>
   </si>
   <si>
-    <t>all_possible_solutions</t>
+    <t>all_possible_solutions_on_edge_Data</t>
   </si>
   <si>
-    <t>all_possible_solutions_on_edge</t>
+    <t>Vergleich_OnEdge_zu_Normal</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>all_possible_solutions</c:v>
+                  <c:v>all_possible_solutions_normal_Data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -180,309 +180,489 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Ergebnisse!$C$2:$C$101</c:f>
+              <c:f>Ergebnisse!$C$2:$C$161</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="160"/>
                 <c:pt idx="0">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>194</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="42">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="43">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="44">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="45">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="46">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="47">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="48">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="49">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="50">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="51">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="52">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="53">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="54">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="55">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="56">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="57">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="58">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="59">
                   <c:v>245</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="60">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="61">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="62">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="63">
                   <c:v>194</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="64">
                   <c:v>245</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="65">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="66">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="67">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="68">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="69">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="70">
                   <c:v>203</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="71">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="72">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="73">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="74">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="75">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="76">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="77">
                   <c:v>181</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="78">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="79">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="80">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="81">
                   <c:v>189</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="82">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="83">
                   <c:v>202</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="84">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="85">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="86">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="87">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="88">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="89">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="90">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="91">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="92">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="93">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="94">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="95">
                   <c:v>197</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="96">
                   <c:v>191</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="97">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="98">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="99">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="100">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="101">
                   <c:v>162</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="102">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="103">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="104">
                   <c:v>233</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="105">
                   <c:v>184</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="106">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="107">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="108">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="109">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="110">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="111">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="112">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="113">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="114">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="115">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="116">
                   <c:v>217</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="117">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="118">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="119">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="120">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="121">
                   <c:v>166</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="122">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="123">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="124">
                   <c:v>198</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="125">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="126">
                   <c:v>168</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="127">
                   <c:v>176</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="128">
                   <c:v>183</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="129">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="130">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="131">
                   <c:v>162</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="132">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="133">
                   <c:v>184</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="134">
                   <c:v>199</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="135">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="136">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="137">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="138">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="139">
                   <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,7 +670,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B4D3-498F-8C72-60D2F3A3679E}"/>
+              <c16:uniqueId val="{00000000-9B8B-4237-97E1-9BA230BAD084}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -503,7 +683,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>all_possible_solutions_on_edge</c:v>
+                  <c:v>all_possible_solutions_on_edge_Data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -522,309 +702,489 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Ergebnisse!$D$2:$D$101</c:f>
+              <c:f>Ergebnisse!$D$2:$D$161</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="160"/>
                 <c:pt idx="0">
-                  <c:v>241</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>307</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>326</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>252</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>220</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>231</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>277</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>239</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>152</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>286</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>274</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>281</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>245</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>251</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>289</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>218</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>253</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>240</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>225</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>253</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>221</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>343</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>283</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>236</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>250</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>226</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>247</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>296</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>302</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>255</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>265</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>253</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>275</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>247</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>285</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>292</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>226</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>252</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>219</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>268</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>298</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="92">
                   <c:v>268</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="93">
                   <c:v>228</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="94">
                   <c:v>291</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="95">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="96">
                   <c:v>304</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="97">
                   <c:v>321</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="98">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="99">
                   <c:v>296</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="100">
                   <c:v>303</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="101">
                   <c:v>262</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="102">
                   <c:v>241</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="103">
                   <c:v>279</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="104">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="105">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="106">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="107">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="108">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="109">
                   <c:v>253</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="110">
                   <c:v>259</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="111">
                   <c:v>252</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="112">
                   <c:v>272</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="113">
                   <c:v>263</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="114">
                   <c:v>237</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="115">
                   <c:v>245</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="116">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="117">
                   <c:v>261</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="118">
                   <c:v>272</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="119">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="120">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="121">
                   <c:v>245</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="122">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="123">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="124">
                   <c:v>279</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="125">
                   <c:v>279</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="126">
                   <c:v>266</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="127">
                   <c:v>259</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="128">
                   <c:v>278</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="129">
                   <c:v>286</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="130">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="131">
                   <c:v>286</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="132">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="133">
                   <c:v>277</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="134">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="135">
                   <c:v>287</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="136">
                   <c:v>283</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="137">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="138">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="139">
                   <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,7 +1192,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B4D3-498F-8C72-60D2F3A3679E}"/>
+              <c16:uniqueId val="{00000001-9B8B-4237-97E1-9BA230BAD084}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -845,11 +1205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="642751416"/>
-        <c:axId val="642754232"/>
+        <c:axId val="697248344"/>
+        <c:axId val="697249048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="642751416"/>
+        <c:axId val="697248344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +1251,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642754232"/>
+        <c:crossAx val="697249048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -899,7 +1259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="642754232"/>
+        <c:axId val="697249048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +1310,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642751416"/>
+        <c:crossAx val="697248344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,23 +1957,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5841C6-B265-BD16-DF99-D7896EAB74B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D64202A-0FD1-25BF-C121-2EDB15ECC579}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,10 +2311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1967,16 +2327,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1984,20 +2344,20 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="D2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <f>D2/C2</f>
-        <v>1.2422680412371134</v>
+        <v>1.980952380952381</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -2005,20 +2365,20 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D3">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="0">D3/C3</f>
-        <v>1.2211538461538463</v>
+        <v>0.83057851239669422</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -2026,20 +2386,20 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>307</v>
+        <v>146</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>2.1468531468531467</v>
+        <v>1.7380952380952381</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2047,20 +2407,20 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D5">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>2.0632911392405062</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -2068,20 +2428,20 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>251</v>
       </c>
       <c r="D6">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>2.7096774193548385</v>
+        <v>1.0597609561752988</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -2089,20 +2449,20 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="D7">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>1.9863013698630136</v>
+        <v>0.68904593639575973</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2110,20 +2470,20 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>1.3625730994152048</v>
+        <v>4.442622950819672</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -2131,20 +2491,20 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>215</v>
+        <v>128</v>
       </c>
       <c r="D9">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>1.4883720930232558</v>
+        <v>1.921875</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -2152,20 +2512,20 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D10">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>1.0641025641025641</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -2173,20 +2533,20 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>1.6387096774193548</v>
+        <v>2.2533333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -2194,20 +2554,20 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="D12">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>1.4636871508379887</v>
+        <v>1.0116279069767442</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -2215,20 +2575,20 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="D13">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0.9555555555555556</v>
+        <v>2.8131868131868134</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2236,20 +2596,20 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>2.2032520325203251</v>
+        <v>0.79338842975206614</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -2257,20 +2617,20 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>1.4285714285714286</v>
+        <v>2.495049504950495</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -2278,20 +2638,20 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D16">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>1.5503355704697988</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -2299,20 +2659,20 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="D17">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>2.6634615384615383</v>
+        <v>1.0555555555555556</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -2320,20 +2680,20 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18">
+        <v>146</v>
+      </c>
+      <c r="D18">
         <v>256</v>
       </c>
-      <c r="D18">
-        <v>239</v>
-      </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>0.93359375</v>
+        <v>1.7534246575342465</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -2341,20 +2701,20 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D19">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>1.4615384615384615</v>
+        <v>2.180327868852459</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -2362,20 +2722,20 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="D20">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>1.5376344086021505</v>
+        <v>2.2672413793103448</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -2383,20 +2743,20 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="D21">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>1.1183673469387756</v>
+        <v>1.0957446808510638</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -2404,20 +2764,20 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="D22">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1.4635416666666667</v>
+        <v>1.2132701421800949</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -2425,20 +2785,20 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D23">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>1.53125</v>
+        <v>1.6753246753246753</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -2446,20 +2806,20 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D24">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>1.0960698689956332</v>
+        <v>1.0878048780487806</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -2467,20 +2827,20 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="D25">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>1.4896907216494846</v>
+        <v>1.8918918918918919</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2488,20 +2848,20 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>245</v>
+        <v>185</v>
       </c>
       <c r="D26">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>0.88979591836734695</v>
+        <v>1.0756756756756756</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -2509,20 +2869,20 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="D27">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>1.4375</v>
+        <v>1.3692307692307693</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -2530,20 +2890,20 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="D28">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>1.3953488372093024</v>
+        <v>1.8394160583941606</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2551,20 +2911,20 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="D29">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>0.99118942731277537</v>
+        <v>2.5567010309278349</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2572,20 +2932,20 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D30">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>2.0737704918032787</v>
+        <v>1.463855421686747</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2593,20 +2953,20 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D31">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>2.0849056603773586</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2614,20 +2974,20 @@
         <v>11</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D32">
         <v>258</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>1.270935960591133</v>
+        <v>1.3298969072164948</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -2635,20 +2995,20 @@
         <v>12</v>
       </c>
       <c r="B33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="D33">
-        <v>343</v>
+        <v>162</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>1.4658119658119657</v>
+        <v>1.2180451127819549</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2656,20 +3016,20 @@
         <v>13</v>
       </c>
       <c r="B34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D34">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>1.861842105263158</v>
+        <v>1.595890410958904</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2677,20 +3037,20 @@
         <v>14</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="D35">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>1.84375</v>
+        <v>1.5182926829268293</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -2698,20 +3058,20 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="D36">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>1.1520737327188939</v>
+        <v>2.1932773109243699</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2719,20 +3079,20 @@
         <v>16</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="D37">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>1.5586206896551724</v>
+        <v>1.2794117647058822</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2740,20 +3100,20 @@
         <v>17</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="D38">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>1.1176470588235294</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2761,20 +3121,20 @@
         <v>18</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="D39">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>1.6353591160220995</v>
+        <v>1.6594202898550725</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2782,20 +3142,20 @@
         <v>19</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D40">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>2.1418439716312059</v>
+        <v>1.34375</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2803,20 +3163,20 @@
         <v>20</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="D41">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="H41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
-        <v>1.9029850746268657</v>
+        <v>1.2227272727272727</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -2824,20 +3184,20 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="D42">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
-        <v>2.0075757575757578</v>
+        <v>1.268041237113402</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2845,20 +3205,20 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="D43">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="H43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
-        <v>1.3386243386243386</v>
+        <v>0.95673076923076927</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2866,20 +3226,20 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="D44">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="H44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
-        <v>2.8350515463917527</v>
+        <v>1.986013986013986</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2887,20 +3247,20 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="D45">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
-        <v>1.2227722772277227</v>
+        <v>1.2848101265822784</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2908,20 +3268,20 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="D46">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
-        <v>1.11328125</v>
+        <v>3.4946236559139785</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2929,20 +3289,20 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="D47">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I47">
         <f t="shared" si="0"/>
-        <v>1.140625</v>
+        <v>1.8698630136986301</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2950,20 +3310,20 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D48">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I48">
         <f t="shared" si="0"/>
-        <v>1.3780487804878048</v>
+        <v>1.1695906432748537</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2971,20 +3331,20 @@
         <v>8</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="D49">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I49">
         <f t="shared" si="0"/>
-        <v>1.8805970149253732</v>
+        <v>1.1813953488372093</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2992,20 +3352,20 @@
         <v>9</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="D50">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
-        <v>1.8403361344537814</v>
+        <v>1.0384615384615385</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -3013,20 +3373,20 @@
         <v>10</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D51">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="H51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I51">
         <f t="shared" si="0"/>
-        <v>2.09375</v>
+        <v>1.4645161290322581</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -3034,20 +3394,20 @@
         <v>11</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D52">
         <v>244</v>
       </c>
       <c r="H52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I52">
         <f t="shared" si="0"/>
-        <v>1.1730769230769231</v>
+        <v>1.3631284916201116</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -3055,20 +3415,20 @@
         <v>12</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="D53">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="H53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I53">
         <f t="shared" si="0"/>
-        <v>1.1919999999999999</v>
+        <v>1.2177777777777778</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -3076,20 +3436,20 @@
         <v>13</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D54">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I54">
         <f t="shared" si="0"/>
-        <v>1.8741258741258742</v>
+        <v>1.8699186991869918</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -3097,20 +3457,20 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D55">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I55">
         <f t="shared" si="0"/>
-        <v>1.5302013422818792</v>
+        <v>1.5974025974025974</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -3118,20 +3478,20 @@
         <v>15</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D56">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I56">
         <f t="shared" si="0"/>
-        <v>2.0208333333333335</v>
+        <v>1.825503355704698</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -3139,20 +3499,20 @@
         <v>16</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="D57">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I57">
         <f t="shared" si="0"/>
-        <v>1.3096446700507614</v>
+        <v>3.2115384615384617</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -3160,20 +3520,20 @@
         <v>17</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="D58">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="H58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I58">
         <f t="shared" si="0"/>
-        <v>1.5916230366492146</v>
+        <v>0.88671875</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -3181,20 +3541,20 @@
         <v>18</v>
       </c>
       <c r="B59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D59">
-        <v>321</v>
+        <v>188</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I59">
         <f t="shared" si="0"/>
-        <v>2.6528925619834709</v>
+        <v>1.8076923076923077</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -3202,20 +3562,20 @@
         <v>19</v>
       </c>
       <c r="B60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D60">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I60">
         <f t="shared" si="0"/>
-        <v>1.2346938775510203</v>
+        <v>1.3494623655913978</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -3223,20 +3583,20 @@
         <v>20</v>
       </c>
       <c r="B61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="D61">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I61">
         <f t="shared" si="0"/>
-        <v>2.5299145299145298</v>
+        <v>0.8448979591836735</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -3244,20 +3604,20 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="D62">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I62">
         <f t="shared" si="0"/>
-        <v>2.3129770992366412</v>
+        <v>1.4635416666666667</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -3265,20 +3625,20 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D63">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="H63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I63">
         <f t="shared" si="0"/>
-        <v>1.617283950617284</v>
+        <v>1.53125</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -3286,20 +3646,20 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D64">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="H64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I64">
         <f t="shared" si="0"/>
-        <v>1.1209302325581396</v>
+        <v>1.0960698689956332</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -3307,20 +3667,20 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="D65">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I65">
         <f t="shared" si="0"/>
-        <v>2.1461538461538461</v>
+        <v>1.4896907216494846</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -3328,20 +3688,20 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D66">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I66">
         <f t="shared" si="0"/>
-        <v>1.0772532188841202</v>
+        <v>0.88979591836734695</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -3349,20 +3709,20 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D67">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H67">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I101" si="1">D67/C67</f>
-        <v>1.3641304347826086</v>
+        <f t="shared" ref="I67:I130" si="1">D67/C67</f>
+        <v>1.4375</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -3370,20 +3730,20 @@
         <v>7</v>
       </c>
       <c r="B68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D68">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="H68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I68">
         <f t="shared" si="1"/>
-        <v>1.3578947368421053</v>
+        <v>1.3953488372093024</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -3391,20 +3751,20 @@
         <v>8</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D69">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
-        <v>0.9322709163346613</v>
+        <v>0.99118942731277537</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -3412,20 +3772,20 @@
         <v>9</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="D70">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>1.40625</v>
+        <v>2.0737704918032787</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3433,20 +3793,20 @@
         <v>10</v>
       </c>
       <c r="B71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>271</v>
+        <v>106</v>
       </c>
       <c r="D71">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>0.93357933579335795</v>
+        <v>2.0849056603773586</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3454,20 +3814,20 @@
         <v>11</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="D72">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>1.9770992366412214</v>
+        <v>1.270935960591133</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3475,20 +3835,20 @@
         <v>12</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D73">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="H73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
-        <v>1.1101321585903083</v>
+        <v>1.4658119658119657</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3496,20 +3856,20 @@
         <v>13</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D74">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="H74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
-        <v>2.1760000000000002</v>
+        <v>1.861842105263158</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3517,20 +3877,20 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D75">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="H75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I75">
         <f t="shared" si="1"/>
-        <v>1.5654761904761905</v>
+        <v>1.84375</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3538,20 +3898,20 @@
         <v>15</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="D76">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="H76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I76">
         <f t="shared" si="1"/>
-        <v>1.4539877300613497</v>
+        <v>1.1520737327188939</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -3559,20 +3919,20 @@
         <v>16</v>
       </c>
       <c r="B77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D77">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="H77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I77">
         <f t="shared" si="1"/>
-        <v>1.9918699186991871</v>
+        <v>1.5586206896551724</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3580,20 +3940,20 @@
         <v>17</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D78">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I78">
         <f t="shared" si="1"/>
-        <v>1.1566820276497696</v>
+        <v>1.1176470588235294</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -3601,20 +3961,20 @@
         <v>18</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="D79">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="H79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I79">
         <f t="shared" si="1"/>
-        <v>1.9191176470588236</v>
+        <v>1.6353591160220995</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3622,20 +3982,20 @@
         <v>19</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="D80">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="H80">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I80">
         <f t="shared" si="1"/>
-        <v>2.7474747474747474</v>
+        <v>2.1418439716312059</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3643,20 +4003,20 @@
         <v>20</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D81">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="H81">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I81">
         <f t="shared" si="1"/>
-        <v>1.8435374149659864</v>
+        <v>1.9029850746268657</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3664,20 +4024,20 @@
         <v>1</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C82">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="D82">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H82">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I82">
         <f t="shared" si="1"/>
-        <v>1.2328767123287672</v>
+        <v>2.0075757575757578</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3685,20 +4045,20 @@
         <v>2</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="D83">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H83">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I83">
         <f t="shared" si="1"/>
-        <v>1.4759036144578312</v>
+        <v>1.3386243386243386</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3706,20 +4066,20 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C84">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D84">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I84">
         <f t="shared" si="1"/>
-        <v>1.5816993464052287</v>
+        <v>2.8350515463917527</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3727,20 +4087,20 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="D85">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H85">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I85">
         <f t="shared" si="1"/>
-        <v>1.916030534351145</v>
+        <v>1.2227722772277227</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3748,20 +4108,20 @@
         <v>5</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="D86">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I86">
         <f t="shared" si="1"/>
-        <v>1.4090909090909092</v>
+        <v>1.11328125</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3769,20 +4129,20 @@
         <v>6</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="D87">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="H87">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I87">
         <f t="shared" si="1"/>
-        <v>1.7658227848101267</v>
+        <v>1.140625</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3790,20 +4150,20 @@
         <v>7</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C88">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D88">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I88">
         <f t="shared" si="1"/>
-        <v>1.5833333333333333</v>
+        <v>1.3780487804878048</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3811,20 +4171,20 @@
         <v>8</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C89">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D89">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H89">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I89">
         <f t="shared" si="1"/>
-        <v>1.4715909090909092</v>
+        <v>1.8805970149253732</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3832,20 +4192,20 @@
         <v>9</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="D90">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="H90">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I90">
         <f t="shared" si="1"/>
-        <v>1.5191256830601092</v>
+        <v>1.8403361344537814</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3853,20 +4213,20 @@
         <v>10</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C91">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="D91">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I91">
         <f t="shared" si="1"/>
-        <v>1.361904761904762</v>
+        <v>2.09375</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3874,20 +4234,20 @@
         <v>11</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C92">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D92">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="H92">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I92">
         <f t="shared" si="1"/>
-        <v>1.5755813953488371</v>
+        <v>1.1730769230769231</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3895,20 +4255,20 @@
         <v>12</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="D93">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I93">
         <f t="shared" si="1"/>
-        <v>1.7654320987654322</v>
+        <v>1.1919999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3916,20 +4276,20 @@
         <v>13</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C94">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="D94">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H94">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I94">
         <f t="shared" si="1"/>
-        <v>1.38</v>
+        <v>1.8741258741258742</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3937,20 +4297,20 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="D95">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="H95">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I95">
         <f t="shared" si="1"/>
-        <v>1.5054347826086956</v>
+        <v>1.5302013422818792</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3958,20 +4318,20 @@
         <v>15</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="D96">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="H96">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I96">
         <f t="shared" si="1"/>
-        <v>1.0804020100502512</v>
+        <v>2.0208333333333335</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3979,20 +4339,20 @@
         <v>16</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C97">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D97">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="H97">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I97">
         <f t="shared" si="1"/>
-        <v>1.3798076923076923</v>
+        <v>1.3096446700507614</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -4000,20 +4360,20 @@
         <v>17</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="D98">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I98">
         <f t="shared" si="1"/>
-        <v>1.2094017094017093</v>
+        <v>1.5916230366492146</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -4021,20 +4381,20 @@
         <v>18</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D99">
-        <v>256</v>
+        <v>321</v>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I99">
         <f t="shared" si="1"/>
-        <v>1.6623376623376624</v>
+        <v>2.6528925619834709</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -4042,20 +4402,20 @@
         <v>19</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D100">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I100">
         <f t="shared" si="1"/>
-        <v>1.4301675977653632</v>
+        <v>1.2346938775510203</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -4063,20 +4423,1280 @@
         <v>20</v>
       </c>
       <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>117</v>
+      </c>
+      <c r="D101">
+        <v>296</v>
+      </c>
+      <c r="H101">
+        <v>7</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>2.5299145299145298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>131</v>
+      </c>
+      <c r="D102">
+        <v>303</v>
+      </c>
+      <c r="H102">
+        <v>8</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>2.3129770992366412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>162</v>
+      </c>
+      <c r="D103">
+        <v>262</v>
+      </c>
+      <c r="H103">
+        <v>8</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>1.617283950617284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>215</v>
+      </c>
+      <c r="D104">
+        <v>241</v>
+      </c>
+      <c r="H104">
+        <v>8</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>1.1209302325581396</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>130</v>
+      </c>
+      <c r="D105">
+        <v>279</v>
+      </c>
+      <c r="H105">
+        <v>8</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>2.1461538461538461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>233</v>
+      </c>
+      <c r="D106">
+        <v>251</v>
+      </c>
+      <c r="H106">
+        <v>8</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>1.0772532188841202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>184</v>
+      </c>
+      <c r="D107">
+        <v>251</v>
+      </c>
+      <c r="H107">
+        <v>8</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>1.3641304347826086</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>190</v>
+      </c>
+      <c r="D108">
+        <v>258</v>
+      </c>
+      <c r="H108">
+        <v>8</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>1.3578947368421053</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>251</v>
+      </c>
+      <c r="D109">
+        <v>234</v>
+      </c>
+      <c r="H109">
+        <v>8</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>0.9322709163346613</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>9</v>
       </c>
-      <c r="C101">
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>192</v>
+      </c>
+      <c r="D110">
+        <v>270</v>
+      </c>
+      <c r="H110">
+        <v>8</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>1.40625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>271</v>
+      </c>
+      <c r="D111">
+        <v>253</v>
+      </c>
+      <c r="H111">
+        <v>8</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>0.93357933579335795</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>131</v>
+      </c>
+      <c r="D112">
+        <v>259</v>
+      </c>
+      <c r="H112">
+        <v>8</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>1.9770992366412214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>12</v>
+      </c>
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>227</v>
+      </c>
+      <c r="D113">
+        <v>252</v>
+      </c>
+      <c r="H113">
+        <v>8</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>1.1101321585903083</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>125</v>
+      </c>
+      <c r="D114">
+        <v>272</v>
+      </c>
+      <c r="H114">
+        <v>8</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>2.1760000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>168</v>
+      </c>
+      <c r="D115">
+        <v>263</v>
+      </c>
+      <c r="H115">
+        <v>8</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>1.5654761904761905</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>15</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>163</v>
+      </c>
+      <c r="D116">
+        <v>237</v>
+      </c>
+      <c r="H116">
+        <v>8</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>1.4539877300613497</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>123</v>
+      </c>
+      <c r="D117">
+        <v>245</v>
+      </c>
+      <c r="H117">
+        <v>8</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>1.9918699186991871</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>217</v>
+      </c>
+      <c r="D118">
+        <v>251</v>
+      </c>
+      <c r="H118">
+        <v>8</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>1.1566820276497696</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>18</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>136</v>
+      </c>
+      <c r="D119">
+        <v>261</v>
+      </c>
+      <c r="H119">
+        <v>8</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="1"/>
+        <v>1.9191176470588236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>19</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>99</v>
+      </c>
+      <c r="D120">
+        <v>272</v>
+      </c>
+      <c r="H120">
+        <v>8</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="1"/>
+        <v>2.7474747474747474</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>147</v>
+      </c>
+      <c r="D121">
+        <v>271</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="1"/>
+        <v>1.8435374149659864</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>219</v>
+      </c>
+      <c r="D122">
+        <v>270</v>
+      </c>
+      <c r="H122">
+        <v>9</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="1"/>
+        <v>1.2328767123287672</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>166</v>
+      </c>
+      <c r="D123">
+        <v>245</v>
+      </c>
+      <c r="H123">
+        <v>9</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="1"/>
+        <v>1.4759036144578312</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>153</v>
+      </c>
+      <c r="D124">
+        <v>242</v>
+      </c>
+      <c r="H124">
+        <v>9</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="1"/>
+        <v>1.5816993464052287</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>131</v>
+      </c>
+      <c r="D125">
+        <v>251</v>
+      </c>
+      <c r="H125">
+        <v>9</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="1"/>
+        <v>1.916030534351145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>198</v>
+      </c>
+      <c r="D126">
+        <v>279</v>
+      </c>
+      <c r="H126">
+        <v>9</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="1"/>
+        <v>1.4090909090909092</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>158</v>
+      </c>
+      <c r="D127">
+        <v>279</v>
+      </c>
+      <c r="H127">
+        <v>9</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="1"/>
+        <v>1.7658227848101267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>168</v>
+      </c>
+      <c r="D128">
+        <v>266</v>
+      </c>
+      <c r="H128">
+        <v>9</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="1"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>176</v>
+      </c>
+      <c r="D129">
+        <v>259</v>
+      </c>
+      <c r="H129">
+        <v>9</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="1"/>
+        <v>1.4715909090909092</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>183</v>
+      </c>
+      <c r="D130">
+        <v>278</v>
+      </c>
+      <c r="H130">
+        <v>9</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="1"/>
+        <v>1.5191256830601092</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131">
+        <v>210</v>
+      </c>
+      <c r="D131">
+        <v>286</v>
+      </c>
+      <c r="H131">
+        <v>9</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I161" si="2">D131/C131</f>
+        <v>1.361904761904762</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>11</v>
+      </c>
+      <c r="B132">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>172</v>
+      </c>
+      <c r="D132">
+        <v>271</v>
+      </c>
+      <c r="H132">
+        <v>9</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="2"/>
+        <v>1.5755813953488371</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>12</v>
+      </c>
+      <c r="B133">
+        <v>9</v>
+      </c>
+      <c r="C133">
+        <v>162</v>
+      </c>
+      <c r="D133">
+        <v>286</v>
+      </c>
+      <c r="H133">
+        <v>9</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="2"/>
+        <v>1.7654320987654322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>13</v>
+      </c>
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>200</v>
+      </c>
+      <c r="D134">
+        <v>276</v>
+      </c>
+      <c r="H134">
+        <v>9</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="2"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>184</v>
+      </c>
+      <c r="D135">
+        <v>277</v>
+      </c>
+      <c r="H135">
+        <v>9</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="2"/>
+        <v>1.5054347826086956</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>15</v>
+      </c>
+      <c r="B136">
+        <v>9</v>
+      </c>
+      <c r="C136">
+        <v>199</v>
+      </c>
+      <c r="D136">
+        <v>215</v>
+      </c>
+      <c r="H136">
+        <v>9</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="2"/>
+        <v>1.0804020100502512</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>16</v>
+      </c>
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="C137">
+        <v>208</v>
+      </c>
+      <c r="D137">
+        <v>287</v>
+      </c>
+      <c r="H137">
+        <v>9</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="2"/>
+        <v>1.3798076923076923</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>17</v>
+      </c>
+      <c r="B138">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>234</v>
+      </c>
+      <c r="D138">
+        <v>283</v>
+      </c>
+      <c r="H138">
+        <v>9</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="2"/>
+        <v>1.2094017094017093</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>18</v>
+      </c>
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>154</v>
+      </c>
+      <c r="D139">
+        <v>256</v>
+      </c>
+      <c r="H139">
+        <v>9</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="2"/>
+        <v>1.6623376623376624</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>19</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>179</v>
+      </c>
+      <c r="D140">
+        <v>256</v>
+      </c>
+      <c r="H140">
+        <v>9</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="2"/>
+        <v>1.4301675977653632</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>20</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141">
         <v>202</v>
       </c>
-      <c r="D101">
+      <c r="D141">
         <v>248</v>
       </c>
-      <c r="H101">
+      <c r="H141">
         <v>9</v>
       </c>
-      <c r="I101">
-        <f t="shared" si="1"/>
+      <c r="I141">
+        <f t="shared" si="2"/>
         <v>1.2277227722772277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>117</v>
+      </c>
+      <c r="D142">
+        <v>246</v>
+      </c>
+      <c r="H142">
+        <v>10</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="2"/>
+        <v>2.1025641025641026</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>208</v>
+      </c>
+      <c r="D143">
+        <v>253</v>
+      </c>
+      <c r="H143">
+        <v>10</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="2"/>
+        <v>1.2163461538461537</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <v>153</v>
+      </c>
+      <c r="D144">
+        <v>251</v>
+      </c>
+      <c r="H144">
+        <v>10</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="2"/>
+        <v>1.6405228758169934</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="B145">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>160</v>
+      </c>
+      <c r="D145">
+        <v>278</v>
+      </c>
+      <c r="H145">
+        <v>10</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="2"/>
+        <v>1.7375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>204</v>
+      </c>
+      <c r="D146">
+        <v>222</v>
+      </c>
+      <c r="H146">
+        <v>10</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="2"/>
+        <v>1.088235294117647</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>161</v>
+      </c>
+      <c r="D147">
+        <v>281</v>
+      </c>
+      <c r="H147">
+        <v>10</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="2"/>
+        <v>1.7453416149068324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>192</v>
+      </c>
+      <c r="D148">
+        <v>260</v>
+      </c>
+      <c r="H148">
+        <v>10</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="2"/>
+        <v>1.3541666666666667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>8</v>
+      </c>
+      <c r="B149">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>187</v>
+      </c>
+      <c r="D149">
+        <v>232</v>
+      </c>
+      <c r="H149">
+        <v>10</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="2"/>
+        <v>1.2406417112299466</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>9</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>172</v>
+      </c>
+      <c r="D150">
+        <v>240</v>
+      </c>
+      <c r="H150">
+        <v>10</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="2"/>
+        <v>1.3953488372093024</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>10</v>
+      </c>
+      <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>272</v>
+      </c>
+      <c r="D151">
+        <v>255</v>
+      </c>
+      <c r="H151">
+        <v>10</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="2"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>11</v>
+      </c>
+      <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>168</v>
+      </c>
+      <c r="D152">
+        <v>270</v>
+      </c>
+      <c r="H152">
+        <v>10</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="2"/>
+        <v>1.6071428571428572</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>232</v>
+      </c>
+      <c r="D153">
+        <v>255</v>
+      </c>
+      <c r="H153">
+        <v>10</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="2"/>
+        <v>1.0991379310344827</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>13</v>
+      </c>
+      <c r="B154">
+        <v>10</v>
+      </c>
+      <c r="C154">
+        <v>153</v>
+      </c>
+      <c r="D154">
+        <v>269</v>
+      </c>
+      <c r="H154">
+        <v>10</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="2"/>
+        <v>1.7581699346405228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>157</v>
+      </c>
+      <c r="D155">
+        <v>277</v>
+      </c>
+      <c r="H155">
+        <v>10</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="2"/>
+        <v>1.7643312101910829</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>15</v>
+      </c>
+      <c r="B156">
+        <v>10</v>
+      </c>
+      <c r="C156">
+        <v>156</v>
+      </c>
+      <c r="D156">
+        <v>256</v>
+      </c>
+      <c r="H156">
+        <v>10</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="2"/>
+        <v>1.641025641025641</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>177</v>
+      </c>
+      <c r="D157">
+        <v>289</v>
+      </c>
+      <c r="H157">
+        <v>10</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="2"/>
+        <v>1.6327683615819208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>17</v>
+      </c>
+      <c r="B158">
+        <v>10</v>
+      </c>
+      <c r="C158">
+        <v>202</v>
+      </c>
+      <c r="D158">
+        <v>269</v>
+      </c>
+      <c r="H158">
+        <v>10</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="2"/>
+        <v>1.3316831683168318</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>18</v>
+      </c>
+      <c r="B159">
+        <v>10</v>
+      </c>
+      <c r="C159">
+        <v>159</v>
+      </c>
+      <c r="D159">
+        <v>281</v>
+      </c>
+      <c r="H159">
+        <v>10</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="2"/>
+        <v>1.7672955974842768</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>19</v>
+      </c>
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>166</v>
+      </c>
+      <c r="D160">
+        <v>288</v>
+      </c>
+      <c r="H160">
+        <v>10</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="2"/>
+        <v>1.7349397590361446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>20</v>
+      </c>
+      <c r="B161">
+        <v>10</v>
+      </c>
+      <c r="C161">
+        <v>186</v>
+      </c>
+      <c r="D161">
+        <v>276</v>
+      </c>
+      <c r="H161">
+        <v>10</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="2"/>
+        <v>1.4838709677419355</v>
       </c>
     </row>
   </sheetData>
